--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Hspg2-Ptprs.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H2">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I2">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J2">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N2">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O2">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P2">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q2">
-        <v>265.3492568214583</v>
+        <v>871.5961704266826</v>
       </c>
       <c r="R2">
-        <v>2388.143311393125</v>
+        <v>7844.365533840144</v>
       </c>
       <c r="S2">
-        <v>0.0124489340840663</v>
+        <v>0.0545501565083894</v>
       </c>
       <c r="T2">
-        <v>0.0124489340840663</v>
+        <v>0.05455015650838941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H3">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I3">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J3">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>61.574391</v>
       </c>
       <c r="O3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P3">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q3">
-        <v>2853.538410273525</v>
+        <v>4198.514216098391</v>
       </c>
       <c r="R3">
-        <v>25681.84569246172</v>
+        <v>37786.62794488553</v>
       </c>
       <c r="S3">
-        <v>0.1338745470832377</v>
+        <v>0.2627703234156543</v>
       </c>
       <c r="T3">
-        <v>0.1338745470832377</v>
+        <v>0.2627703234156543</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H4">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I4">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J4">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N4">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O4">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P4">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q4">
-        <v>1212.22207734355</v>
+        <v>1826.92725922033</v>
       </c>
       <c r="R4">
-        <v>10909.99869609195</v>
+        <v>16442.34533298298</v>
       </c>
       <c r="S4">
-        <v>0.05687173545111435</v>
+        <v>0.1143409887529963</v>
       </c>
       <c r="T4">
-        <v>0.05687173545111437</v>
+        <v>0.1143409887529963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H5">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I5">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J5">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N5">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P5">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q5">
-        <v>2913.3306760701</v>
+        <v>1321.031191962509</v>
       </c>
       <c r="R5">
-        <v>26219.9760846309</v>
+        <v>11889.28072766258</v>
       </c>
       <c r="S5">
-        <v>0.1366797178402803</v>
+        <v>0.08267872292135189</v>
       </c>
       <c r="T5">
-        <v>0.1366797178402803</v>
+        <v>0.08267872292135188</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H6">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I6">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J6">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N6">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O6">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P6">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q6">
-        <v>228.261834778575</v>
+        <v>398.58868753076</v>
       </c>
       <c r="R6">
-        <v>2054.356513007175</v>
+        <v>3587.29818777684</v>
       </c>
       <c r="S6">
-        <v>0.01070896737795844</v>
+        <v>0.0249462721671119</v>
       </c>
       <c r="T6">
-        <v>0.01070896737795844</v>
+        <v>0.0249462721671119</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>139.028825</v>
+        <v>204.558136</v>
       </c>
       <c r="H7">
-        <v>417.086475</v>
+        <v>613.674408</v>
       </c>
       <c r="I7">
-        <v>0.428090758569687</v>
+        <v>0.60178627893129</v>
       </c>
       <c r="J7">
-        <v>0.428090758569687</v>
+        <v>0.6017862789312901</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N7">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P7">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q7">
-        <v>1652.0600634395</v>
+        <v>998.6149085107945</v>
       </c>
       <c r="R7">
-        <v>14868.5405709555</v>
+        <v>8987.53417659715</v>
       </c>
       <c r="S7">
-        <v>0.0775068567330299</v>
+        <v>0.06249981516578627</v>
       </c>
       <c r="T7">
-        <v>0.07750685673302993</v>
+        <v>0.06249981516578626</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>315.206086</v>
       </c>
       <c r="I8">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J8">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N8">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O8">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P8">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q8">
-        <v>200.5332363407389</v>
+        <v>447.6843320681276</v>
       </c>
       <c r="R8">
-        <v>1804.79912706665</v>
+        <v>4029.158988613149</v>
       </c>
       <c r="S8">
-        <v>0.009408072480678095</v>
+        <v>0.02801899688099239</v>
       </c>
       <c r="T8">
-        <v>0.009408072480678101</v>
+        <v>0.02801899688099239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>315.206086</v>
       </c>
       <c r="I9">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J9">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>61.574391</v>
       </c>
       <c r="O9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P9">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q9">
         <v>2156.513642771514</v>
@@ -1013,10 +1013,10 @@
         <v>19408.62278494363</v>
       </c>
       <c r="S9">
-        <v>0.1011734365184823</v>
+        <v>0.1349686480013723</v>
       </c>
       <c r="T9">
-        <v>0.1011734365184824</v>
+        <v>0.1349686480013723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>315.206086</v>
       </c>
       <c r="I10">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J10">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N10">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O10">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P10">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q10">
-        <v>916.1164393121347</v>
+        <v>938.3780442503769</v>
       </c>
       <c r="R10">
-        <v>8245.047953809211</v>
+        <v>8445.402398253393</v>
       </c>
       <c r="S10">
-        <v>0.04297985720005233</v>
+        <v>0.05872980046807162</v>
       </c>
       <c r="T10">
-        <v>0.04297985720005235</v>
+        <v>0.05872980046807161</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>315.206086</v>
       </c>
       <c r="I11">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J11">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N11">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P11">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q11">
-        <v>2201.700641642216</v>
+        <v>678.5309376994865</v>
       </c>
       <c r="R11">
-        <v>19815.30577477994</v>
+        <v>6106.778439295379</v>
       </c>
       <c r="S11">
-        <v>0.1032933971211105</v>
+        <v>0.04246687870274984</v>
       </c>
       <c r="T11">
-        <v>0.1032933971211105</v>
+        <v>0.04246687870274984</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>315.206086</v>
       </c>
       <c r="I12">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J12">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N12">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O12">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P12">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q12">
-        <v>172.505041127822</v>
+        <v>204.7300302613367</v>
       </c>
       <c r="R12">
-        <v>1552.545370150398</v>
+        <v>1842.57027235203</v>
       </c>
       <c r="S12">
-        <v>0.008093121917482368</v>
+        <v>0.01281333669382231</v>
       </c>
       <c r="T12">
-        <v>0.008093121917482371</v>
+        <v>0.01281333669382231</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>315.206086</v>
       </c>
       <c r="I13">
-        <v>0.3235223881606853</v>
+        <v>0.3090998990957371</v>
       </c>
       <c r="J13">
-        <v>0.3235223881606854</v>
+        <v>0.3090998990957372</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N13">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P13">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q13">
-        <v>1248.516597028653</v>
+        <v>512.9258978857982</v>
       </c>
       <c r="R13">
-        <v>11236.64937325788</v>
+        <v>4616.333080972184</v>
       </c>
       <c r="S13">
-        <v>0.05857450292287971</v>
+        <v>0.03210223834872862</v>
       </c>
       <c r="T13">
-        <v>0.05857450292287975</v>
+        <v>0.03210223834872861</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H14">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I14">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J14">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N14">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O14">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P14">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q14">
-        <v>0.3993944369555554</v>
+        <v>0.7038393528977779</v>
       </c>
       <c r="R14">
-        <v>3.594549932599999</v>
+        <v>6.33455417608</v>
       </c>
       <c r="S14">
-        <v>1.873770094086958E-05</v>
+        <v>4.405084391151187E-05</v>
       </c>
       <c r="T14">
-        <v>1.873770094086959E-05</v>
+        <v>4.405084391151187E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H15">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I15">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J15">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>61.574391</v>
       </c>
       <c r="O15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P15">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q15">
-        <v>4.295046386615999</v>
+        <v>3.39042280044</v>
       </c>
       <c r="R15">
-        <v>38.65541747954399</v>
+        <v>30.51380520396</v>
       </c>
       <c r="S15">
-        <v>0.0002015032941696402</v>
+        <v>0.0002121947074447036</v>
       </c>
       <c r="T15">
-        <v>0.0002015032941696403</v>
+        <v>0.0002121947074447035</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H16">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I16">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J16">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N16">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O16">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P16">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q16">
-        <v>1.824594347258667</v>
+        <v>1.475297096924444</v>
       </c>
       <c r="R16">
-        <v>16.421349125328</v>
+        <v>13.27767387232</v>
       </c>
       <c r="S16">
-        <v>8.56013505794988E-05</v>
+        <v>9.233368647570331E-05</v>
       </c>
       <c r="T16">
-        <v>8.560135057949884E-05</v>
+        <v>9.233368647570328E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H17">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I17">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J17">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N17">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P17">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q17">
-        <v>4.385043617504</v>
+        <v>1.066771253542222</v>
       </c>
       <c r="R17">
-        <v>39.46539255753599</v>
+        <v>9.600941281880001</v>
       </c>
       <c r="S17">
-        <v>0.0002057255392533227</v>
+        <v>6.676548247210783E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002057255392533228</v>
+        <v>6.67654824721078E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H18">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I18">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J18">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N18">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O18">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P18">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q18">
-        <v>0.343571744168</v>
+        <v>0.3218720015333333</v>
       </c>
       <c r="R18">
-        <v>3.092145697512</v>
+        <v>2.8968480138</v>
       </c>
       <c r="S18">
-        <v>1.611876380408705E-05</v>
+        <v>2.014484305353984E-05</v>
       </c>
       <c r="T18">
-        <v>1.611876380408706E-05</v>
+        <v>2.014484305353984E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2092613333333333</v>
+        <v>0.1651866666666667</v>
       </c>
       <c r="H19">
-        <v>0.6277839999999999</v>
+        <v>0.49556</v>
       </c>
       <c r="I19">
-        <v>0.0006443472634251981</v>
+        <v>0.0004859599887163456</v>
       </c>
       <c r="J19">
-        <v>0.0006443472634251983</v>
+        <v>0.0004859599887163457</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N19">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P19">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q19">
-        <v>2.486623127413333</v>
+        <v>0.806410692071111</v>
       </c>
       <c r="R19">
-        <v>22.37960814672</v>
+        <v>7.257696228639999</v>
       </c>
       <c r="S19">
-        <v>0.0001166606146777798</v>
+        <v>5.047042535877925E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001166606146777799</v>
+        <v>5.047042535877924E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H20">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I20">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J20">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N20">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O20">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P20">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q20">
-        <v>152.1592514670556</v>
+        <v>125.5571218556202</v>
       </c>
       <c r="R20">
-        <v>1369.4332632035</v>
+        <v>1130.014096700582</v>
       </c>
       <c r="S20">
-        <v>0.007138593544540353</v>
+        <v>0.007858181208637084</v>
       </c>
       <c r="T20">
-        <v>0.007138593544540358</v>
+        <v>0.007858181208637084</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H21">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I21">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J21">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>61.574391</v>
       </c>
       <c r="O21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P21">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q21">
-        <v>1636.30482233406</v>
+        <v>604.813764596001</v>
       </c>
       <c r="R21">
-        <v>14726.74340100654</v>
+        <v>5443.323881364009</v>
       </c>
       <c r="S21">
-        <v>0.07676769522057778</v>
+        <v>0.03785317861250899</v>
       </c>
       <c r="T21">
-        <v>0.07676769522057782</v>
+        <v>0.03785317861250898</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H22">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I22">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J22">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N22">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O22">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P22">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q22">
-        <v>695.1246297423868</v>
+        <v>263.1766135399475</v>
       </c>
       <c r="R22">
-        <v>6256.121667681481</v>
+        <v>2368.589521859528</v>
       </c>
       <c r="S22">
-        <v>0.03261196507400268</v>
+        <v>0.01647130396514252</v>
       </c>
       <c r="T22">
-        <v>0.0326119650740027</v>
+        <v>0.01647130396514252</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H23">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I23">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J23">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N23">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P23">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q23">
-        <v>1670.59150742264</v>
+        <v>190.3001412490308</v>
       </c>
       <c r="R23">
-        <v>15035.32356680376</v>
+        <v>1712.701271241277</v>
       </c>
       <c r="S23">
-        <v>0.07837626457457475</v>
+        <v>0.01191022039899665</v>
       </c>
       <c r="T23">
-        <v>0.07837626457457479</v>
+        <v>0.01191022039899665</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H24">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I24">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J24">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N24">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O24">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P24">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q24">
-        <v>130.89220725338</v>
+        <v>57.41838951182167</v>
       </c>
       <c r="R24">
-        <v>1178.02986528042</v>
+        <v>516.765505606395</v>
       </c>
       <c r="S24">
-        <v>0.006140844258371785</v>
+        <v>0.003593616218846169</v>
       </c>
       <c r="T24">
-        <v>0.006140844258371788</v>
+        <v>0.003593616218846169</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>79.72331333333334</v>
+        <v>29.46746633333333</v>
       </c>
       <c r="H25">
-        <v>239.16994</v>
+        <v>88.402399</v>
       </c>
       <c r="I25">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011115</v>
       </c>
       <c r="J25">
-        <v>0.2454801274523863</v>
+        <v>0.08668986363011116</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N25">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P25">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q25">
-        <v>947.3409710761334</v>
+        <v>143.8547093355729</v>
       </c>
       <c r="R25">
-        <v>8526.068739685201</v>
+        <v>1294.692384020156</v>
       </c>
       <c r="S25">
-        <v>0.04444476478031889</v>
+        <v>0.009003363225979742</v>
       </c>
       <c r="T25">
-        <v>0.04444476478031892</v>
+        <v>0.00900336322597974</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H26">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I26">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J26">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N26">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O26">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P26">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q26">
-        <v>0.9093745836694443</v>
+        <v>2.326777345813333</v>
       </c>
       <c r="R26">
-        <v>8.184371253025001</v>
+        <v>20.94099611232</v>
       </c>
       <c r="S26">
-        <v>4.266356117003701E-05</v>
+        <v>0.0001456248577964226</v>
       </c>
       <c r="T26">
-        <v>4.266356117003704E-05</v>
+        <v>0.0001456248577964226</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H27">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I27">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J27">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>61.574391</v>
       </c>
       <c r="O27">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P27">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q27">
-        <v>9.779320036209</v>
+        <v>11.20818114576</v>
       </c>
       <c r="R27">
-        <v>88.013880325881</v>
+        <v>100.87363031184</v>
       </c>
       <c r="S27">
-        <v>0.000458799515687619</v>
+        <v>0.0007014808651307836</v>
       </c>
       <c r="T27">
-        <v>0.0004587995156876192</v>
+        <v>0.0007014808651307835</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H28">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I28">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J28">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N28">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O28">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P28">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q28">
-        <v>4.154388672891334</v>
+        <v>4.877089991253333</v>
       </c>
       <c r="R28">
-        <v>37.38949805602201</v>
+        <v>43.89380992128</v>
       </c>
       <c r="S28">
-        <v>0.0001949042984628159</v>
+        <v>0.0003052400083379533</v>
       </c>
       <c r="T28">
-        <v>0.000194904298462816</v>
+        <v>0.0003052400083379533</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H29">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I29">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J29">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N29">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O29">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P29">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q29">
-        <v>9.984233241796002</v>
+        <v>3.526570623946667</v>
       </c>
       <c r="R29">
-        <v>89.858099176164</v>
+        <v>31.73913561552</v>
       </c>
       <c r="S29">
-        <v>0.0004684130756420141</v>
+        <v>0.0002207157236361004</v>
       </c>
       <c r="T29">
-        <v>0.0004684130756420143</v>
+        <v>0.0002207157236361004</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H30">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I30">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J30">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N30">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O30">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P30">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q30">
-        <v>0.782272818307</v>
+        <v>1.0640559928</v>
       </c>
       <c r="R30">
-        <v>7.040455364763001</v>
+        <v>9.5765039352</v>
       </c>
       <c r="S30">
-        <v>3.670054654576702E-05</v>
+        <v>6.659554379697939E-05</v>
       </c>
       <c r="T30">
-        <v>3.670054654576703E-05</v>
+        <v>6.659554379697939E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.4764636666666667</v>
+        <v>0.54608</v>
       </c>
       <c r="H31">
-        <v>1.429391</v>
+        <v>1.63824</v>
       </c>
       <c r="I31">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="J31">
-        <v>0.001467103620376766</v>
+        <v>0.001606503938805929</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N31">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O31">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P31">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q31">
-        <v>5.661751046086668</v>
+        <v>2.665861353173333</v>
       </c>
       <c r="R31">
-        <v>50.95575941478</v>
+        <v>23.99275217856</v>
       </c>
       <c r="S31">
-        <v>0.0002656226228685127</v>
+        <v>0.0001668469401076893</v>
       </c>
       <c r="T31">
-        <v>0.0002656226228685128</v>
+        <v>0.0001668469401076893</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H32">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I32">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J32">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.908591666666666</v>
+        <v>4.260872666666667</v>
       </c>
       <c r="N32">
-        <v>5.725775</v>
+        <v>12.782618</v>
       </c>
       <c r="O32">
-        <v>0.02908012806830959</v>
+        <v>0.09064705929364961</v>
       </c>
       <c r="P32">
-        <v>0.0290801280683096</v>
+        <v>0.09064705929364959</v>
       </c>
       <c r="Q32">
-        <v>0.4929459660888888</v>
+        <v>0.4801193929526668</v>
       </c>
       <c r="R32">
-        <v>4.436513694799999</v>
+        <v>4.321074536574001</v>
       </c>
       <c r="S32">
-        <v>2.312669691393195E-05</v>
+        <v>3.004899392279282E-05</v>
       </c>
       <c r="T32">
-        <v>2.312669691393197E-05</v>
+        <v>3.004899392279282E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H33">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I33">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J33">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>61.574391</v>
       </c>
       <c r="O33">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284585</v>
       </c>
       <c r="P33">
-        <v>0.3127246837341967</v>
+        <v>0.4366505728284584</v>
       </c>
       <c r="Q33">
-        <v>5.301089836367999</v>
+        <v>2.312754650757</v>
       </c>
       <c r="R33">
-        <v>47.709808527312</v>
+        <v>20.814791856813</v>
       </c>
       <c r="S33">
-        <v>0.0002487021020415471</v>
+        <v>0.000144747226347425</v>
       </c>
       <c r="T33">
-        <v>0.0002487021020415473</v>
+        <v>0.000144747226347425</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H34">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I34">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J34">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>8.719214000000001</v>
+        <v>8.931090666666666</v>
       </c>
       <c r="N34">
-        <v>26.157642</v>
+        <v>26.793272</v>
       </c>
       <c r="O34">
-        <v>0.132849715422802</v>
+        <v>0.190002651698962</v>
       </c>
       <c r="P34">
-        <v>0.132849715422802</v>
+        <v>0.1900026516989619</v>
       </c>
       <c r="Q34">
-        <v>2.251975340682667</v>
+        <v>1.006364227410667</v>
       </c>
       <c r="R34">
-        <v>20.267778066144</v>
+        <v>9.057278046696</v>
       </c>
       <c r="S34">
-        <v>0.0001056520485903021</v>
+        <v>6.29848179379009E-05</v>
       </c>
       <c r="T34">
-        <v>0.0001056520485903022</v>
+        <v>6.29848179379009E-05</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H35">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I35">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J35">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.954868</v>
+        <v>6.457974333333333</v>
       </c>
       <c r="N35">
-        <v>62.864604</v>
+        <v>19.373923</v>
       </c>
       <c r="O35">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646722</v>
       </c>
       <c r="P35">
-        <v>0.3192774314889369</v>
+        <v>0.1373888468646721</v>
       </c>
       <c r="Q35">
-        <v>5.412167427391999</v>
+        <v>0.7276910058543334</v>
       </c>
       <c r="R35">
-        <v>48.709506846528</v>
+        <v>6.549219052689002</v>
       </c>
       <c r="S35">
-        <v>0.0002539133380760429</v>
+        <v>4.554363546557177E-05</v>
       </c>
       <c r="T35">
-        <v>0.000253913338076043</v>
+        <v>4.554363546557176E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H36">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I36">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J36">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.641831</v>
+        <v>1.948535</v>
       </c>
       <c r="N36">
-        <v>4.925493</v>
+        <v>5.845605</v>
       </c>
       <c r="O36">
-        <v>0.02501564718130951</v>
+        <v>0.04145370713904261</v>
       </c>
       <c r="P36">
-        <v>0.02501564718130951</v>
+        <v>0.0414537071390426</v>
       </c>
       <c r="Q36">
-        <v>0.424047732464</v>
+        <v>0.219562872335</v>
       </c>
       <c r="R36">
-        <v>3.816429592176</v>
+        <v>1.976065851015</v>
       </c>
       <c r="S36">
-        <v>1.989431714705755E-05</v>
+        <v>1.374167241171154E-05</v>
       </c>
       <c r="T36">
-        <v>1.989431714705756E-05</v>
+        <v>1.374167241171154E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.2582773333333333</v>
+        <v>0.112681</v>
       </c>
       <c r="H37">
-        <v>0.774832</v>
+        <v>0.338043</v>
       </c>
       <c r="I37">
-        <v>0.0007952749334393249</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="J37">
-        <v>0.0007952749334393251</v>
+        <v>0.000331494415339494</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.88286</v>
+        <v>4.881814666666666</v>
       </c>
       <c r="N37">
-        <v>35.64858</v>
+        <v>14.645444</v>
       </c>
       <c r="O37">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="P37">
-        <v>0.1810523941044453</v>
+        <v>0.1038571621752152</v>
       </c>
       <c r="Q37">
-        <v>3.069073393173333</v>
+        <v>0.5500877584546667</v>
       </c>
       <c r="R37">
-        <v>27.62166053856</v>
+        <v>4.950789826092</v>
       </c>
       <c r="S37">
-        <v>0.0001439864306704431</v>
+        <v>3.442806925409197E-05</v>
       </c>
       <c r="T37">
-        <v>0.0001439864306704432</v>
+        <v>3.442806925409196E-05</v>
       </c>
     </row>
   </sheetData>
